--- a/config_6.22/shoping_config_vivo.xlsx
+++ b/config_6.22/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6832,23 +6832,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6862,21 +6854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6890,6 +6868,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6899,22 +6899,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,11 +6913,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6945,23 +6930,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6976,11 +6945,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7061,13 +7061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7079,7 +7091,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,7 +7145,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7109,79 +7199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7193,25 +7211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7253,8 +7253,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7263,8 +7265,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7280,21 +7282,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7316,10 +7303,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7340,11 +7334,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,19 +7368,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7389,112 +7389,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="J651" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F680" sqref="F680"/>
+      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53410,6 +53410,822 @@
         <v>1</v>
       </c>
       <c r="AM670" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="29">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="29">
+        <v>1</v>
+      </c>
+      <c r="G671" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J671" s="29" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P671" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R671" s="53" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z671" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA671" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="29">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="29">
+        <v>1</v>
+      </c>
+      <c r="G672" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J672" s="29" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P672" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R672" s="53" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z672" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA672" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="29">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="29">
+        <v>1</v>
+      </c>
+      <c r="G673" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J673" s="29" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P673" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R673" s="53" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z673" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA673" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="29">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="29">
+        <v>1</v>
+      </c>
+      <c r="G674" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J674" s="29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P674" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R674" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z674" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA674" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="29">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="29">
+        <v>1</v>
+      </c>
+      <c r="G675" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J675" s="29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P675" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R675" s="53" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z675" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA675" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="29">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="29">
+        <v>1</v>
+      </c>
+      <c r="G676" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J676" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P676" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R676" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z676" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA676" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="29">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="29">
+        <v>1</v>
+      </c>
+      <c r="G677" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J677" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P677" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R677" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z677" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA677" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="29">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="29">
+        <v>1</v>
+      </c>
+      <c r="G678" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J678" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P678" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R678" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z678" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA678" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="29">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="29">
+        <v>1</v>
+      </c>
+      <c r="G679" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J679" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P679" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R679" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z679" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA679" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="29">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="29">
+        <v>1</v>
+      </c>
+      <c r="G680" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J680" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P680" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R680" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z680" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA680" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="29">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="29">
+        <v>1</v>
+      </c>
+      <c r="G681" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J681" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P681" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R681" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z681" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA681" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="29">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="29">
+        <v>1</v>
+      </c>
+      <c r="G682" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J682" s="29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P682" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R682" s="53" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="29">
+        <v>1624320000</v>
+      </c>
+      <c r="Z682" s="29">
+        <v>1624895999</v>
+      </c>
+      <c r="AA682" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="29">
         <v>1</v>
       </c>
     </row>

--- a/config_6.22/shoping_config_vivo.xlsx
+++ b/config_6.22/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6831,9 +6831,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6847,7 +6846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6855,6 +6854,45 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6869,45 +6907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6921,26 +6921,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6954,7 +6947,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6962,7 +6955,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6975,12 +6975,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7061,7 +7061,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,43 +7133,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7121,31 +7175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7157,7 +7187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,49 +7211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7251,22 +7251,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7286,26 +7281,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7315,6 +7312,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7334,17 +7340,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,16 +7368,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7386,115 +7386,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN682"/>
+  <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J651" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V618" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="V644" sqref="V644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -51063,7 +51063,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="29" t="s">
         <v>1624</v>
@@ -51102,10 +51102,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="29">
         <v>80</v>
@@ -51131,7 +51131,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="29" t="s">
         <v>1624</v>
@@ -51170,10 +51170,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="29">
         <v>80</v>
@@ -51199,7 +51199,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="29" t="s">
         <v>1624</v>
@@ -51238,10 +51238,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="29">
         <v>80</v>
@@ -51267,7 +51267,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="29" t="s">
         <v>1624</v>
@@ -51306,10 +51306,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="29">
         <v>81</v>
@@ -51335,7 +51335,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="29" t="s">
         <v>1624</v>
@@ -51374,10 +51374,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="29">
         <v>81</v>
@@ -51403,7 +51403,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="29" t="s">
         <v>1624</v>
@@ -51442,10 +51442,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="29">
         <v>81</v>
@@ -51471,7 +51471,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="29" t="s">
         <v>1624</v>
@@ -51510,10 +51510,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="29">
         <v>82</v>
@@ -51539,7 +51539,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="29" t="s">
         <v>1624</v>
@@ -51578,10 +51578,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="29">
         <v>82</v>
@@ -51607,7 +51607,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="29" t="s">
         <v>1624</v>
@@ -51646,10 +51646,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="29">
         <v>82</v>
@@ -51675,7 +51675,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="29" t="s">
         <v>1624</v>
@@ -51714,10 +51714,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="29">
         <v>83</v>
@@ -51743,7 +51743,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="29" t="s">
         <v>1624</v>
@@ -51782,10 +51782,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="29">
         <v>83</v>
@@ -51811,7 +51811,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="29" t="s">
         <v>1624</v>
@@ -51850,10 +51850,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="29">
         <v>83</v>
@@ -53410,822 +53410,6 @@
         <v>1</v>
       </c>
       <c r="AM670" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:39">
-      <c r="A671" s="21">
-        <v>670</v>
-      </c>
-      <c r="B671" s="29">
-        <v>10587</v>
-      </c>
-      <c r="F671" s="29">
-        <v>1</v>
-      </c>
-      <c r="G671" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I671" s="28" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J671" s="29" t="s">
-        <v>1625</v>
-      </c>
-      <c r="L671" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M671" s="28">
-        <v>0</v>
-      </c>
-      <c r="N671" s="28">
-        <v>0</v>
-      </c>
-      <c r="O671" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P671" s="29">
-        <v>600</v>
-      </c>
-      <c r="Q671" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R671" s="53" t="s">
-        <v>1627</v>
-      </c>
-      <c r="W671" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X671" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y671" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z671" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA671" s="29">
-        <v>80</v>
-      </c>
-      <c r="AH671" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI671" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL671" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM671" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:39">
-      <c r="A672" s="21">
-        <v>671</v>
-      </c>
-      <c r="B672" s="29">
-        <v>10588</v>
-      </c>
-      <c r="F672" s="29">
-        <v>1</v>
-      </c>
-      <c r="G672" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I672" s="28" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J672" s="29" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L672" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M672" s="28">
-        <v>0</v>
-      </c>
-      <c r="N672" s="28">
-        <v>0</v>
-      </c>
-      <c r="O672" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P672" s="29">
-        <v>1000</v>
-      </c>
-      <c r="Q672" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R672" s="53" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W672" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X672" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y672" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z672" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA672" s="29">
-        <v>80</v>
-      </c>
-      <c r="AH672" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI672" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL672" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM672" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:39">
-      <c r="A673" s="21">
-        <v>672</v>
-      </c>
-      <c r="B673" s="29">
-        <v>10589</v>
-      </c>
-      <c r="F673" s="29">
-        <v>1</v>
-      </c>
-      <c r="G673" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I673" s="28" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J673" s="29" t="s">
-        <v>1630</v>
-      </c>
-      <c r="L673" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M673" s="28">
-        <v>0</v>
-      </c>
-      <c r="N673" s="28">
-        <v>0</v>
-      </c>
-      <c r="O673" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P673" s="29">
-        <v>1800</v>
-      </c>
-      <c r="Q673" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R673" s="53" t="s">
-        <v>1631</v>
-      </c>
-      <c r="W673" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X673" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y673" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z673" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA673" s="29">
-        <v>80</v>
-      </c>
-      <c r="AH673" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI673" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL673" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM673" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:39">
-      <c r="A674" s="21">
-        <v>673</v>
-      </c>
-      <c r="B674" s="29">
-        <v>10590</v>
-      </c>
-      <c r="F674" s="29">
-        <v>1</v>
-      </c>
-      <c r="G674" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I674" s="28" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J674" s="29" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L674" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M674" s="28">
-        <v>0</v>
-      </c>
-      <c r="N674" s="28">
-        <v>0</v>
-      </c>
-      <c r="O674" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P674" s="29">
-        <v>1800</v>
-      </c>
-      <c r="Q674" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R674" s="53" t="s">
-        <v>1633</v>
-      </c>
-      <c r="W674" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X674" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y674" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z674" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA674" s="29">
-        <v>81</v>
-      </c>
-      <c r="AH674" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI674" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL674" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM674" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:39">
-      <c r="A675" s="21">
-        <v>674</v>
-      </c>
-      <c r="B675" s="29">
-        <v>10591</v>
-      </c>
-      <c r="F675" s="29">
-        <v>1</v>
-      </c>
-      <c r="G675" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I675" s="28" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J675" s="29" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L675" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M675" s="28">
-        <v>0</v>
-      </c>
-      <c r="N675" s="28">
-        <v>0</v>
-      </c>
-      <c r="O675" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P675" s="29">
-        <v>3000</v>
-      </c>
-      <c r="Q675" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R675" s="53" t="s">
-        <v>1635</v>
-      </c>
-      <c r="W675" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X675" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y675" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z675" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA675" s="29">
-        <v>81</v>
-      </c>
-      <c r="AH675" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI675" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL675" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM675" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:39">
-      <c r="A676" s="21">
-        <v>675</v>
-      </c>
-      <c r="B676" s="29">
-        <v>10592</v>
-      </c>
-      <c r="F676" s="29">
-        <v>1</v>
-      </c>
-      <c r="G676" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I676" s="28" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J676" s="29" t="s">
-        <v>1636</v>
-      </c>
-      <c r="L676" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M676" s="28">
-        <v>0</v>
-      </c>
-      <c r="N676" s="28">
-        <v>0</v>
-      </c>
-      <c r="O676" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P676" s="29">
-        <v>4800</v>
-      </c>
-      <c r="Q676" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R676" s="53" t="s">
-        <v>1637</v>
-      </c>
-      <c r="W676" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X676" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y676" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z676" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA676" s="29">
-        <v>81</v>
-      </c>
-      <c r="AH676" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI676" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL676" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM676" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:39">
-      <c r="A677" s="21">
-        <v>676</v>
-      </c>
-      <c r="B677" s="29">
-        <v>10593</v>
-      </c>
-      <c r="F677" s="29">
-        <v>1</v>
-      </c>
-      <c r="G677" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I677" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="J677" s="29" t="s">
-        <v>1636</v>
-      </c>
-      <c r="L677" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M677" s="28">
-        <v>0</v>
-      </c>
-      <c r="N677" s="28">
-        <v>0</v>
-      </c>
-      <c r="O677" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P677" s="29">
-        <v>4800</v>
-      </c>
-      <c r="Q677" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R677" s="53" t="s">
-        <v>1637</v>
-      </c>
-      <c r="W677" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X677" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y677" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z677" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA677" s="29">
-        <v>82</v>
-      </c>
-      <c r="AH677" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI677" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL677" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM677" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:39">
-      <c r="A678" s="21">
-        <v>677</v>
-      </c>
-      <c r="B678" s="29">
-        <v>10594</v>
-      </c>
-      <c r="F678" s="29">
-        <v>1</v>
-      </c>
-      <c r="G678" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I678" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="J678" s="29" t="s">
-        <v>1638</v>
-      </c>
-      <c r="L678" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M678" s="28">
-        <v>0</v>
-      </c>
-      <c r="N678" s="28">
-        <v>0</v>
-      </c>
-      <c r="O678" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P678" s="29">
-        <v>9800</v>
-      </c>
-      <c r="Q678" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R678" s="53" t="s">
-        <v>1639</v>
-      </c>
-      <c r="W678" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X678" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y678" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z678" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA678" s="29">
-        <v>82</v>
-      </c>
-      <c r="AH678" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI678" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL678" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM678" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:39">
-      <c r="A679" s="21">
-        <v>678</v>
-      </c>
-      <c r="B679" s="29">
-        <v>10595</v>
-      </c>
-      <c r="F679" s="29">
-        <v>1</v>
-      </c>
-      <c r="G679" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I679" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="J679" s="29" t="s">
-        <v>1640</v>
-      </c>
-      <c r="L679" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M679" s="28">
-        <v>0</v>
-      </c>
-      <c r="N679" s="28">
-        <v>0</v>
-      </c>
-      <c r="O679" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P679" s="29">
-        <v>19800</v>
-      </c>
-      <c r="Q679" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R679" s="53" t="s">
-        <v>1641</v>
-      </c>
-      <c r="W679" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X679" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y679" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z679" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA679" s="29">
-        <v>82</v>
-      </c>
-      <c r="AH679" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI679" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL679" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM679" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:39">
-      <c r="A680" s="21">
-        <v>679</v>
-      </c>
-      <c r="B680" s="29">
-        <v>10596</v>
-      </c>
-      <c r="F680" s="29">
-        <v>1</v>
-      </c>
-      <c r="G680" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I680" s="28" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J680" s="29" t="s">
-        <v>1638</v>
-      </c>
-      <c r="L680" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M680" s="28">
-        <v>0</v>
-      </c>
-      <c r="N680" s="28">
-        <v>0</v>
-      </c>
-      <c r="O680" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P680" s="29">
-        <v>9800</v>
-      </c>
-      <c r="Q680" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R680" s="53" t="s">
-        <v>1639</v>
-      </c>
-      <c r="W680" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X680" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y680" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z680" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA680" s="29">
-        <v>83</v>
-      </c>
-      <c r="AH680" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI680" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL680" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM680" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:39">
-      <c r="A681" s="21">
-        <v>680</v>
-      </c>
-      <c r="B681" s="29">
-        <v>10597</v>
-      </c>
-      <c r="F681" s="29">
-        <v>1</v>
-      </c>
-      <c r="G681" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I681" s="28" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J681" s="29" t="s">
-        <v>1640</v>
-      </c>
-      <c r="L681" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M681" s="28">
-        <v>0</v>
-      </c>
-      <c r="N681" s="28">
-        <v>0</v>
-      </c>
-      <c r="O681" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P681" s="29">
-        <v>19800</v>
-      </c>
-      <c r="Q681" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R681" s="53" t="s">
-        <v>1641</v>
-      </c>
-      <c r="W681" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X681" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y681" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z681" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA681" s="29">
-        <v>83</v>
-      </c>
-      <c r="AH681" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI681" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL681" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM681" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:39">
-      <c r="A682" s="21">
-        <v>681</v>
-      </c>
-      <c r="B682" s="29">
-        <v>10598</v>
-      </c>
-      <c r="F682" s="29">
-        <v>1</v>
-      </c>
-      <c r="G682" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I682" s="28" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J682" s="29" t="s">
-        <v>1642</v>
-      </c>
-      <c r="L682" s="28">
-        <v>-31</v>
-      </c>
-      <c r="M682" s="28">
-        <v>0</v>
-      </c>
-      <c r="N682" s="28">
-        <v>0</v>
-      </c>
-      <c r="O682" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="P682" s="29">
-        <v>49800</v>
-      </c>
-      <c r="Q682" s="29" t="s">
-        <v>1626</v>
-      </c>
-      <c r="R682" s="53" t="s">
-        <v>1643</v>
-      </c>
-      <c r="W682" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="X682" s="28">
-        <v>99999999</v>
-      </c>
-      <c r="Y682" s="29">
-        <v>1624320000</v>
-      </c>
-      <c r="Z682" s="29">
-        <v>1624895999</v>
-      </c>
-      <c r="AA682" s="29">
-        <v>83</v>
-      </c>
-      <c r="AH682" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI682" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL682" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM682" s="29">
         <v>1</v>
       </c>
     </row>
